--- a/other/class2_1.xlsx
+++ b/other/class2_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="132">
   <si>
     <t>农凤婷</t>
   </si>
@@ -409,6 +409,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -808,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1277,7 +1281,9 @@
       <c r="G28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="4:8">
       <c r="D29" s="2">

--- a/other/class2_1.xlsx
+++ b/other/class2_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="133">
   <si>
     <t>农凤婷</t>
   </si>
@@ -409,6 +409,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -812,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1299,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="4:8">
@@ -1400,7 +1404,9 @@
       <c r="G35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="36" spans="4:10">
       <c r="D36" s="2">

--- a/other/class2_1.xlsx
+++ b/other/class2_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="135">
   <si>
     <t>农凤婷</t>
   </si>
@@ -409,6 +409,14 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -816,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1782,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="4:10">
@@ -2109,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="4:10">

--- a/other/class2_1.xlsx
+++ b/other/class2_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="136">
   <si>
     <t>农凤婷</t>
   </si>
@@ -409,6 +409,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -824,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2494,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="4:10">

--- a/other/class2_1.xlsx
+++ b/other/class2_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
   <si>
     <t>农凤婷</t>
   </si>
@@ -409,6 +409,10 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -828,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1709,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="4:10">
@@ -2017,7 +2021,9 @@
       <c r="G70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="71" spans="4:10">
       <c r="D71" s="2">
